--- a/intake meeting/for_stats_peeps.xlsx
+++ b/intake meeting/for_stats_peeps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08cc5ca1d8cdd710/Desktop/2022Spring/Consulting/Maria/Maria_Intake_Meeting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08cc5ca1d8cdd710/Desktop/2022Spring/Consulting/Maria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_CE4CE778A8C6F7FBA2914D7CE558D54397E23328" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{165A314B-CAAE-49F6-B353-35F65C3266C6}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_CE4CE778A8C6F7FBA2914D7CE558D54397E23328" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A9A7E9-CBB1-462F-B661-FEE0EDCD2BDF}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,17 +749,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="9" max="9" width="16.1328125" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1328125" customWidth="1"/>
     <col min="14" max="14" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -807,7 +805,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -851,7 +849,7 @@
         <v>-7.99</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -895,7 +893,7 @@
         <v>-12.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -939,7 +937,7 @@
         <v>-10.86</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -983,7 +981,7 @@
         <v>-8.56</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1027,7 +1025,7 @@
         <v>-6.51</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1071,7 +1069,7 @@
         <v>-10.36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1115,7 +1113,7 @@
         <v>-10.43</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1156,7 +1154,7 @@
         <v>-15.67</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1200,7 +1198,7 @@
         <v>-12.42</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1244,7 +1242,7 @@
         <v>-10.49</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1288,7 +1286,7 @@
         <v>-8.42</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1332,7 +1330,7 @@
         <v>-8.5500000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1376,7 +1374,7 @@
         <v>-11.38</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1417,7 +1415,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1461,7 +1459,7 @@
         <v>-8.2899999999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1505,7 +1503,7 @@
         <v>-12.47</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1549,7 +1547,7 @@
         <v>-7.14</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1593,51 +1591,51 @@
         <v>-10.16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20">
+      <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="1">
         <v>-17.78</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>3.55</v>
       </c>
-      <c r="M20">
-        <v>3.3</v>
-      </c>
-      <c r="N20">
+      <c r="M20" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="N20" s="1">
         <v>-8.09</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1681,7 +1679,7 @@
         <v>-6.23</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1725,7 +1723,7 @@
         <v>-9.23</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1769,7 +1767,7 @@
         <v>-6.21</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1813,7 +1811,7 @@
         <v>-13.05</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1857,7 +1855,7 @@
         <v>-7.65</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1901,48 +1899,48 @@
         <v>-5.58</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27">
+      <c r="I27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="1">
         <v>-12.97</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <v>5.85</v>
       </c>
-      <c r="M27">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+      <c r="M27" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1986,7 +1984,7 @@
         <v>-12.58</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -2027,7 +2025,7 @@
         <v>-13.26</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2071,51 +2069,51 @@
         <v>-7.44</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31">
+      <c r="I31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="1">
         <v>-19.05</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="1">
         <v>8.83</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="1">
         <v>3</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>-9.43</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2159,7 +2157,7 @@
         <v>-4.58</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -2203,7 +2201,7 @@
         <v>-7.75</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -2247,7 +2245,7 @@
         <v>-9.08</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -2291,7 +2289,7 @@
         <v>-11.81</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -2335,7 +2333,7 @@
         <v>-7.48</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -2379,7 +2377,7 @@
         <v>-7.14</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -2423,7 +2421,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -2467,7 +2465,7 @@
         <v>-5.13</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -2511,7 +2509,7 @@
         <v>-6.58</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2555,7 +2553,7 @@
         <v>-4.62</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -2599,7 +2597,7 @@
         <v>-4.05</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -2643,7 +2641,7 @@
         <v>-3.82</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -2687,7 +2685,7 @@
         <v>-2.66</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -2731,7 +2729,7 @@
         <v>-7.13</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -2775,7 +2773,7 @@
         <v>-5.54</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -2819,7 +2817,7 @@
         <v>-4.79</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -2863,7 +2861,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -2907,7 +2905,7 @@
         <v>-3.69</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -2951,7 +2949,7 @@
         <v>-10.73</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -2995,7 +2993,7 @@
         <v>-4.37</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -3039,7 +3037,7 @@
         <v>-11.22</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3083,7 +3081,7 @@
         <v>-9.56</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -3127,44 +3125,44 @@
         <v>-12.84</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+    <row r="55" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I55" t="s">
-        <v>7</v>
-      </c>
-      <c r="J55" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55">
+      <c r="I55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="1">
         <v>-13.16</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="1">
         <v>7.17</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="1">
         <v>3.3</v>
       </c>
     </row>
@@ -3652,7 +3650,7 @@
         <v>-9.59</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -3696,7 +3694,7 @@
         <v>-7.3</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -3730,7 +3728,9 @@
       <c r="K68">
         <v>-20.309999999999999</v>
       </c>
-      <c r="L68" s="1"/>
+      <c r="L68" s="1">
+        <v>13.6</v>
+      </c>
       <c r="M68">
         <v>3.3</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>-11.84</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>-11.1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>-7.37</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>-6.79</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -3959,18 +3959,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N73" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Hare"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="BAOX"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3981,6 +3969,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D8241F6DE20A84EB9BB161EB94B38F1" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2c0e45ab93274bdc136775ffc393cb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -4094,15 +4091,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4110,6 +4098,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1EC8B7E-6506-4AAF-AEFF-C1D9EA66EF3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDA5E41C-FA89-47BB-B345-998EEE39604E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4125,14 +4121,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1EC8B7E-6506-4AAF-AEFF-C1D9EA66EF3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2681BD37-CA03-4AB5-8774-F1F186841D51}">
   <ds:schemaRefs>
